--- a/pred_ohlcv/54_21/2019-10-31 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>301742.6524078431</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>303578.6224078431</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>277332.6224078431</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>307507.6224078431</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>302636.798407843</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>418736.9925078431</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>418736.9925078431</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>418736.9925078431</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>416123.4925078431</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>416123.4925078431</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>416976.2326078431</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>416976.2326078431</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>370196.0212078431</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>379532.0212078431</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>342253.0212078431</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>342253.0212078431</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>342253.0212078431</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>418045.0703078431</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>360595.5262078431</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>360595.5262078431</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>426327.6787078431</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>407757.0552078431</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>383484.459907843</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>454713.459907843</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>436570.142107843</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>440627.142107843</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>444643.142107843</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>434559.815507843</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>544022.823407843</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>613941.823407843</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>739968.2566078429</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1043939.395233845</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1043939.395233845</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1131736.122633845</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1191694.462533845</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1480751.145033845</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1701795.555733845</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1437980.669633845</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1486220.274333845</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1810827.619033845</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1802063.774833845</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1839395.941531622</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1958944.876631622</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1693077.127739029</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1651212.653139029</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1497996.919339029</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1536828.667639029</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1622504.057139029</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1713436.95963903</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1735013.75023903</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1700510.12163903</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1659588.07483903</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1670700.98843903</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1563959.74293903</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1591716.32183903</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1567879.12623903</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1438173.00603903</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1417848.38593903</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1433450.69003903</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1068494.702572835</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1057592.292772835</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>975533.784372835</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>943145.111872835</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>916901.240772835</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>916901.240772835</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>918901.240772835</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>914901.240772835</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1022758.695672835</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1022758.695672835</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1025789.695672835</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1046270.695672835</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1171996.367206168</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>301742.6524078431</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>303578.6224078431</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>277332.6224078431</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>307507.6224078431</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>302636.798407843</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>306636.798407843</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -912,7 +912,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>418736.9925078431</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>418736.9925078431</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>418736.9925078431</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>410158.4925078431</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>416123.4925078431</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>416123.4925078431</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>416123.4925078431</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>415622.4925078431</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>415622.4925078431</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>426822.4925078431</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>380831.2326078431</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>416976.2326078431</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>416976.2326078431</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>416976.2326078431</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>370196.0212078431</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>379532.0212078431</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>342253.0212078431</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>342253.0212078431</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>342253.0212078431</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>418045.0703078431</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>360595.5262078431</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>360595.5262078431</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>426327.6787078431</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>407757.0552078431</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>383484.459907843</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>454713.459907843</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>436570.142107843</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>440627.142107843</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>444643.142107843</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>434559.815507843</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>544022.823407843</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>613941.823407843</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>613941.823407843</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>613941.823407843</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>792869.709507843</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>792869.709507843</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>874738.211507843</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>821826.7585078429</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>739958.2566078429</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>739968.2566078429</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1043939.395233845</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1043939.395233845</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1131736.122633845</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1191694.462533845</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1480751.145033845</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1701795.555733845</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1437980.669633845</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1486220.274333845</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1810827.619033845</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1839395.941531622</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1958944.876631622</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1693077.127739029</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1651212.653139029</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1713436.95963903</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1735013.75023903</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1700510.12163903</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1659588.07483903</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1670700.98843903</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1563959.74293903</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1591716.32183903</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1567879.12623903</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1438173.00603903</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1438173.00603903</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1472671.26043903</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1431436.34213903</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1417848.38593903</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1068494.702572835</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1057592.292772835</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
